--- a/excel-files/chart-styles.xlsx
+++ b/excel-files/chart-styles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="560" windowWidth="30600" windowHeight="25820" tabRatio="913" activeTab="13"/>
+    <workbookView xWindow="8700" yWindow="560" windowWidth="30600" windowHeight="25820" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -1487,68 +1487,9 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,47 +1499,20 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1623,6 +1537,92 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Currency 2" xfId="11"/>
@@ -1719,11 +1719,6 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="236E8C"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1788,11 +1783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2076351256"/>
-        <c:axId val="-2098681544"/>
+        <c:axId val="-2026376552"/>
+        <c:axId val="-2028347272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076351256"/>
+        <c:axId val="-2026376552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098681544"/>
+        <c:crossAx val="-2028347272"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098681544"/>
+        <c:axId val="-2028347272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -1867,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076351256"/>
+        <c:crossAx val="-2026376552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -2480,11 +2475,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-2098256040"/>
-        <c:axId val="-2105473928"/>
+        <c:axId val="-2103931896"/>
+        <c:axId val="-2103953016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098256040"/>
+        <c:axId val="-2103931896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105473928"/>
+        <c:crossAx val="-2103953016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +2522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105473928"/>
+        <c:axId val="-2103953016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098256040"/>
+        <c:crossAx val="-2103931896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3215,11 +3210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2074106344"/>
-        <c:axId val="2138021960"/>
+        <c:axId val="2137971016"/>
+        <c:axId val="-2040146824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074106344"/>
+        <c:axId val="2137971016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3224,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138021960"/>
+        <c:crossAx val="-2040146824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3237,7 +3232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138021960"/>
+        <c:axId val="-2040146824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +3258,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2074106344"/>
+        <c:crossAx val="2137971016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4581,11 +4576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080939992"/>
-        <c:axId val="-2080942536"/>
+        <c:axId val="-2100028248"/>
+        <c:axId val="-2099355304"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2080939992"/>
+        <c:axId val="-2100028248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4590,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080942536"/>
+        <c:crossAx val="-2099355304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4603,7 +4598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080942536"/>
+        <c:axId val="-2099355304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,7 +4637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080939992"/>
+        <c:crossAx val="-2100028248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5021,11 +5016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099417528"/>
-        <c:axId val="-2088139992"/>
+        <c:axId val="-2078858248"/>
+        <c:axId val="-2020402632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099417528"/>
+        <c:axId val="-2078858248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,7 +5048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088139992"/>
+        <c:crossAx val="-2020402632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5061,7 +5056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088139992"/>
+        <c:axId val="-2020402632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3E7"/>
@@ -5100,7 +5095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099417528"/>
+        <c:crossAx val="-2078858248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5474,11 +5469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088486648"/>
-        <c:axId val="-2088022968"/>
+        <c:axId val="2138394856"/>
+        <c:axId val="-2021333768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088486648"/>
+        <c:axId val="2138394856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +5483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088022968"/>
+        <c:crossAx val="-2021333768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5496,7 +5491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088022968"/>
+        <c:axId val="-2021333768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5522,7 +5517,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2088486648"/>
+        <c:crossAx val="2138394856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5631,7 +5626,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5890,11 +5884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2146505784"/>
-        <c:axId val="2146499288"/>
+        <c:axId val="-2075559016"/>
+        <c:axId val="-2143222536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146505784"/>
+        <c:axId val="-2075559016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5898,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146499288"/>
+        <c:crossAx val="-2143222536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5912,7 +5906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146499288"/>
+        <c:axId val="-2143222536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,7 +5916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146505784"/>
+        <c:crossAx val="-2075559016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6357,11 +6351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2141573832"/>
-        <c:axId val="2146458072"/>
+        <c:axId val="2142797112"/>
+        <c:axId val="2143153928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141573832"/>
+        <c:axId val="2142797112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6370,7 +6364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146458072"/>
+        <c:crossAx val="2143153928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6378,7 +6372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146458072"/>
+        <c:axId val="2143153928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6398,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2141573832"/>
+        <c:crossAx val="2142797112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6485,11 +6479,6 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="236E8C"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:txPr>
@@ -6573,11 +6562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2099045032"/>
-        <c:axId val="-2098970536"/>
+        <c:axId val="-2074368392"/>
+        <c:axId val="-2039527064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099045032"/>
+        <c:axId val="-2074368392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6606,7 +6595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098970536"/>
+        <c:crossAx val="-2039527064"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6614,7 +6603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098970536"/>
+        <c:axId val="-2039527064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -6626,7 +6615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099045032"/>
+        <c:crossAx val="-2074368392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -6860,11 +6849,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="2137460600"/>
-        <c:axId val="-2074884904"/>
+        <c:axId val="2131518328"/>
+        <c:axId val="2137233336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137460600"/>
+        <c:axId val="2131518328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,7 +6880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074884904"/>
+        <c:crossAx val="2137233336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6899,7 +6888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074884904"/>
+        <c:axId val="2137233336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -6936,7 +6925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137460600"/>
+        <c:crossAx val="2131518328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -7235,11 +7224,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2099833000"/>
-        <c:axId val="-2087152424"/>
+        <c:axId val="-2087688248"/>
+        <c:axId val="2125265832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099833000"/>
+        <c:axId val="-2087688248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7248,7 +7237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087152424"/>
+        <c:crossAx val="2125265832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7256,7 +7245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087152424"/>
+        <c:axId val="2125265832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7282,7 +7271,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2099833000"/>
+        <c:crossAx val="-2087688248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7429,7 +7418,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -7450,7 +7438,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -7707,11 +7694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="-2104831832"/>
-        <c:axId val="-2104854648"/>
+        <c:axId val="2138737800"/>
+        <c:axId val="-2021316456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2104831832"/>
+        <c:axId val="2138737800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7739,7 +7726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104854648"/>
+        <c:crossAx val="-2021316456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7749,7 +7736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104854648"/>
+        <c:axId val="-2021316456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -7786,7 +7773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104831832"/>
+        <c:crossAx val="2138737800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8047,7 +8034,7 @@
                   <c:v>5.0718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.154199999999998</c:v>
+                  <c:v>6.154199999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.2366</c:v>
@@ -8784,11 +8771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2075412376"/>
-        <c:axId val="2131663528"/>
+        <c:axId val="-2141463416"/>
+        <c:axId val="-2076683592"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2075412376"/>
+        <c:axId val="-2141463416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8816,7 +8803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131663528"/>
+        <c:crossAx val="-2076683592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8826,7 +8813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131663528"/>
+        <c:axId val="-2076683592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8906,7 +8893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075412376"/>
+        <c:crossAx val="-2141463416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -9955,11 +9942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079415000"/>
-        <c:axId val="-2085033192"/>
+        <c:axId val="2142014376"/>
+        <c:axId val="2140777208"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2079415000"/>
+        <c:axId val="2142014376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9987,7 +9974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085033192"/>
+        <c:crossAx val="2140777208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9997,7 +9984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085033192"/>
+        <c:axId val="2140777208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10035,7 +10022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079415000"/>
+        <c:crossAx val="2142014376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -11004,8 +10991,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2083282440"/>
-        <c:axId val="-2088458072"/>
+        <c:axId val="-2099928968"/>
+        <c:axId val="-2099921480"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11278,11 +11265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2083282440"/>
-        <c:axId val="-2088458072"/>
+        <c:axId val="-2099928968"/>
+        <c:axId val="-2099921480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2083282440"/>
+        <c:axId val="-2099928968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11310,7 +11297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088458072"/>
+        <c:crossAx val="-2099921480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11320,7 +11307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088458072"/>
+        <c:axId val="-2099921480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11358,7 +11345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083282440"/>
+        <c:crossAx val="-2099928968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5.0"/>
@@ -13467,11 +13454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098494792"/>
-        <c:axId val="-2098510744"/>
+        <c:axId val="-2142477640"/>
+        <c:axId val="-2043960904"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2098494792"/>
+        <c:axId val="-2142477640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13481,7 +13468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098510744"/>
+        <c:crossAx val="-2043960904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13490,7 +13477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098510744"/>
+        <c:axId val="-2043960904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13501,7 +13488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098494792"/>
+        <c:crossAx val="-2142477640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13570,7 +13557,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="TPC-logo-03.eps"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -21653,8 +21640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28343,20 +28330,20 @@
     </row>
     <row r="4" spans="1:11" s="60" customFormat="1" ht="13"/>
     <row r="5" spans="1:11" s="60" customFormat="1" ht="13">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" spans="1:11" s="60" customFormat="1" ht="13">
-      <c r="A6" s="131"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28376,7 +28363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -28494,7 +28481,7 @@
   <dimension ref="B3:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -28845,6 +28832,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -28908,132 +28896,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="14" customFormat="1" ht="17">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="133" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="133"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
-      <c r="AL1" s="133"/>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="133"/>
-      <c r="AS1" s="133"/>
-      <c r="AT1" s="133"/>
-      <c r="AU1" s="133"/>
-      <c r="AV1" s="133"/>
-      <c r="AW1" s="133"/>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="133"/>
-      <c r="AZ1" s="133"/>
-      <c r="BA1" s="133"/>
-      <c r="BB1" s="133"/>
-      <c r="BC1" s="133"/>
-      <c r="BD1" s="133"/>
-      <c r="BE1" s="133"/>
-      <c r="BF1" s="133"/>
-      <c r="BG1" s="133"/>
-      <c r="BH1" s="133"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="145"/>
+      <c r="AQ1" s="145"/>
+      <c r="AR1" s="145"/>
+      <c r="AS1" s="145"/>
+      <c r="AT1" s="145"/>
+      <c r="AU1" s="145"/>
+      <c r="AV1" s="145"/>
+      <c r="AW1" s="145"/>
+      <c r="AX1" s="145"/>
+      <c r="AY1" s="145"/>
+      <c r="AZ1" s="145"/>
+      <c r="BA1" s="145"/>
+      <c r="BB1" s="145"/>
+      <c r="BC1" s="145"/>
+      <c r="BD1" s="145"/>
+      <c r="BE1" s="145"/>
+      <c r="BF1" s="145"/>
+      <c r="BG1" s="145"/>
+      <c r="BH1" s="145"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="115"/>
+      <c r="BA2" s="115"/>
+      <c r="BB2" s="115"/>
+      <c r="BC2" s="115"/>
+      <c r="BD2" s="115"/>
+      <c r="BE2" s="115"/>
+      <c r="BF2" s="115"/>
+      <c r="BG2" s="115"/>
+      <c r="BH2" s="115"/>
     </row>
     <row r="3" spans="1:60" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="16"/>
@@ -29055,326 +29043,326 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136" t="s">
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="136" t="s">
+      <c r="X3" s="141"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="136" t="s">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="136" t="s">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="140"/>
-      <c r="AL3" s="136" t="s">
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="141"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
-      <c r="AS3" s="141"/>
-      <c r="AT3" s="134"/>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="134"/>
-      <c r="AY3" s="134"/>
-      <c r="AZ3" s="134"/>
-      <c r="BA3" s="134"/>
-      <c r="BB3" s="134"/>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="141"/>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="148"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="114"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="114"/>
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="116"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="116"/>
+      <c r="H4" s="133"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="116" t="s">
+      <c r="P4" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
       <c r="U4" s="142"/>
       <c r="V4" s="142"/>
       <c r="W4" s="142"/>
       <c r="X4" s="142"/>
-      <c r="Y4" s="143"/>
+      <c r="Y4" s="119"/>
       <c r="Z4" s="142"/>
       <c r="AA4" s="142"/>
-      <c r="AB4" s="144"/>
+      <c r="AB4" s="120"/>
       <c r="AC4" s="142"/>
       <c r="AD4" s="142"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="145"/>
-      <c r="AH4" s="145"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="146"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
-      <c r="AP4" s="147"/>
-      <c r="AQ4" s="147"/>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="134"/>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="134"/>
-      <c r="BA4" s="134"/>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="134"/>
-      <c r="BH4" s="134"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="149"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
+      <c r="AP4" s="149"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="114"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
       <c r="U5" s="142"/>
       <c r="V5" s="142"/>
       <c r="W5" s="142"/>
       <c r="X5" s="142"/>
-      <c r="Y5" s="143"/>
+      <c r="Y5" s="119"/>
       <c r="Z5" s="142"/>
       <c r="AA5" s="142"/>
-      <c r="AB5" s="144"/>
+      <c r="AB5" s="120"/>
       <c r="AC5" s="142"/>
       <c r="AD5" s="142"/>
-      <c r="AE5" s="143"/>
-      <c r="AF5" s="148" t="s">
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="149"/>
-      <c r="AH5" s="150"/>
-      <c r="AI5" s="148" t="s">
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="149"/>
-      <c r="AK5" s="150"/>
+      <c r="AJ5" s="151"/>
+      <c r="AK5" s="122"/>
       <c r="AL5" s="142" t="s">
         <v>50</v>
       </c>
       <c r="AM5" s="142"/>
-      <c r="AN5" s="150"/>
+      <c r="AN5" s="122"/>
       <c r="AO5" s="142" t="s">
         <v>51</v>
       </c>
       <c r="AP5" s="142"/>
       <c r="AQ5" s="142"/>
-      <c r="AR5" s="150"/>
+      <c r="AR5" s="122"/>
       <c r="AS5" s="142"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
+      <c r="AX5" s="114"/>
+      <c r="AY5" s="114"/>
+      <c r="AZ5" s="114"/>
+      <c r="BA5" s="114"/>
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="114"/>
+      <c r="BD5" s="114"/>
+      <c r="BE5" s="114"/>
+      <c r="BF5" s="114"/>
+      <c r="BG5" s="114"/>
+      <c r="BH5" s="114"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="123"/>
+      <c r="K6" s="137"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="123"/>
+      <c r="N6" s="137"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="113" t="s">
+      <c r="P6" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="113"/>
+      <c r="Q6" s="139"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="113" t="s">
+      <c r="S6" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="143"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="150"/>
-      <c r="AL6" s="151"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="152"/>
-      <c r="AO6" s="153"/>
-      <c r="AP6" s="151"/>
-      <c r="AQ6" s="151"/>
-      <c r="AR6" s="152"/>
-      <c r="AS6" s="153"/>
-      <c r="AT6" s="134"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="134"/>
-      <c r="AW6" s="134"/>
-      <c r="AX6" s="134"/>
-      <c r="AY6" s="134"/>
-      <c r="AZ6" s="134"/>
-      <c r="BA6" s="134"/>
-      <c r="BB6" s="134"/>
-      <c r="BC6" s="134"/>
-      <c r="BD6" s="134"/>
-      <c r="BE6" s="134"/>
-      <c r="BF6" s="134"/>
-      <c r="BG6" s="134"/>
-      <c r="BH6" s="134"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="154"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="154"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114"/>
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="24"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="114"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="134"/>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="134"/>
-      <c r="AB7" s="134"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="134"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="134"/>
-      <c r="AI7" s="134"/>
-      <c r="AJ7" s="134"/>
-      <c r="AK7" s="134"/>
-      <c r="AL7" s="134"/>
-      <c r="AM7" s="134"/>
-      <c r="AN7" s="134"/>
-      <c r="AO7" s="134"/>
-      <c r="AP7" s="134"/>
-      <c r="AQ7" s="134"/>
-      <c r="AR7" s="134"/>
-      <c r="AS7" s="134"/>
-      <c r="AT7" s="134"/>
-      <c r="AU7" s="134"/>
-      <c r="AV7" s="134"/>
-      <c r="AW7" s="134"/>
-      <c r="AX7" s="134"/>
-      <c r="AY7" s="134"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="134"/>
-      <c r="BC7" s="134"/>
-      <c r="BD7" s="134"/>
-      <c r="BE7" s="134"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="134"/>
+      <c r="S7" s="144"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="114"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="114"/>
+      <c r="BD7" s="114"/>
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
     </row>
     <row r="8" spans="1:60" ht="15">
       <c r="A8" s="25"/>
@@ -29396,78 +29384,78 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="154" t="s">
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="124" t="s">
         <v>202</v>
       </c>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="155">
+      <c r="X8" s="124"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="125">
         <v>0.41</v>
       </c>
-      <c r="AA8" s="156">
+      <c r="AA8" s="126">
         <f>Z8</f>
         <v>0.41</v>
       </c>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="155">
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="125">
         <v>0.43</v>
       </c>
-      <c r="AD8" s="156">
+      <c r="AD8" s="126">
         <f>AC8</f>
         <v>0.43</v>
       </c>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158">
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128">
         <v>-37</v>
       </c>
-      <c r="AG8" s="156">
+      <c r="AG8" s="126">
         <f>AF8</f>
         <v>-37</v>
       </c>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="155">
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="125">
         <v>-9.75</v>
       </c>
-      <c r="AJ8" s="156">
+      <c r="AJ8" s="126">
         <f>AI8</f>
         <v>-9.75</v>
       </c>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="155">
+      <c r="AK8" s="128"/>
+      <c r="AL8" s="125">
         <v>0</v>
       </c>
-      <c r="AM8" s="156">
+      <c r="AM8" s="126">
         <f>AL8</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="155">
+      <c r="AN8" s="127"/>
+      <c r="AO8" s="125">
         <v>0.41</v>
       </c>
-      <c r="AP8" s="156">
+      <c r="AP8" s="126">
         <f>AO8</f>
         <v>0.41</v>
       </c>
-      <c r="AQ8" s="134"/>
-      <c r="AR8" s="134"/>
-      <c r="AS8" s="134"/>
-      <c r="AT8" s="134"/>
-      <c r="AU8" s="134"/>
-      <c r="AV8" s="134"/>
-      <c r="AW8" s="134"/>
-      <c r="AX8" s="134"/>
-      <c r="AY8" s="134"/>
-      <c r="AZ8" s="134"/>
-      <c r="BA8" s="134"/>
-      <c r="BB8" s="134"/>
-      <c r="BC8" s="134"/>
-      <c r="BD8" s="134"/>
-      <c r="BE8" s="134"/>
-      <c r="BF8" s="134"/>
-      <c r="BG8" s="134"/>
-      <c r="BH8" s="134"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+      <c r="AX8" s="114"/>
+      <c r="AY8" s="114"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="114"/>
+      <c r="BC8" s="114"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="114"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
     </row>
     <row r="9" spans="1:60" ht="15">
       <c r="A9" s="26" t="s">
@@ -29504,78 +29492,78 @@
         <v>0.41</v>
       </c>
       <c r="T9" s="27"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="159" t="s">
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="155">
+      <c r="X9" s="129"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="125">
         <v>2.06</v>
       </c>
-      <c r="AA9" s="156">
+      <c r="AA9" s="126">
         <f t="shared" ref="AA9:AA20" si="0">Z9</f>
         <v>2.06</v>
       </c>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="155">
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="125">
         <v>5.18</v>
       </c>
-      <c r="AD9" s="156">
+      <c r="AD9" s="126">
         <f t="shared" ref="AD9:AD20" si="1">AC9</f>
         <v>5.18</v>
       </c>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158">
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128">
         <v>-437</v>
       </c>
-      <c r="AG9" s="156">
+      <c r="AG9" s="126">
         <f t="shared" ref="AG9:AG20" si="2">AF9</f>
         <v>-437</v>
       </c>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="155">
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="125">
         <v>-19.07</v>
       </c>
-      <c r="AJ9" s="156">
+      <c r="AJ9" s="126">
         <f t="shared" ref="AJ9:AJ20" si="3">AI9</f>
         <v>-19.07</v>
       </c>
-      <c r="AK9" s="158"/>
-      <c r="AL9" s="155">
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="125">
         <v>-0.27</v>
       </c>
-      <c r="AM9" s="156">
+      <c r="AM9" s="126">
         <f t="shared" ref="AM9:AM20" si="4">AL9</f>
         <v>-0.27</v>
       </c>
-      <c r="AN9" s="157"/>
-      <c r="AO9" s="155">
+      <c r="AN9" s="127"/>
+      <c r="AO9" s="125">
         <v>2.29</v>
       </c>
-      <c r="AP9" s="156">
+      <c r="AP9" s="126">
         <f t="shared" ref="AP9:AP20" si="5">AO9</f>
         <v>2.29</v>
       </c>
-      <c r="AQ9" s="134"/>
-      <c r="AR9" s="134"/>
-      <c r="AS9" s="134"/>
-      <c r="AT9" s="134"/>
-      <c r="AU9" s="134"/>
-      <c r="AV9" s="134"/>
-      <c r="AW9" s="134"/>
-      <c r="AX9" s="134"/>
-      <c r="AY9" s="134"/>
-      <c r="AZ9" s="134"/>
-      <c r="BA9" s="134"/>
-      <c r="BB9" s="134"/>
-      <c r="BC9" s="134"/>
-      <c r="BD9" s="134"/>
-      <c r="BE9" s="134"/>
-      <c r="BF9" s="134"/>
-      <c r="BG9" s="134"/>
-      <c r="BH9" s="134"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
     </row>
     <row r="10" spans="1:60" ht="15">
       <c r="A10" s="30" t="s">
@@ -29612,78 +29600,78 @@
         <v>2.29</v>
       </c>
       <c r="T10" s="27"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="154" t="s">
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="155">
+      <c r="X10" s="124"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="125">
         <v>2.34</v>
       </c>
-      <c r="AA10" s="156">
+      <c r="AA10" s="126">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="AB10" s="157"/>
-      <c r="AC10" s="155">
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="125">
         <v>9.66</v>
       </c>
-      <c r="AD10" s="156">
+      <c r="AD10" s="126">
         <f t="shared" si="1"/>
         <v>9.66</v>
       </c>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158">
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128">
         <v>-814</v>
       </c>
-      <c r="AG10" s="156">
+      <c r="AG10" s="126">
         <f t="shared" si="2"/>
         <v>-814</v>
       </c>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="155">
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="125">
         <v>-11.58</v>
       </c>
-      <c r="AJ10" s="156">
+      <c r="AJ10" s="126">
         <f t="shared" si="3"/>
         <v>-11.58</v>
       </c>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="155">
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="125">
         <v>-0.19</v>
       </c>
-      <c r="AM10" s="156">
+      <c r="AM10" s="126">
         <f t="shared" si="4"/>
         <v>-0.19</v>
       </c>
-      <c r="AN10" s="157"/>
-      <c r="AO10" s="155">
+      <c r="AN10" s="127"/>
+      <c r="AO10" s="125">
         <v>7.68</v>
       </c>
-      <c r="AP10" s="156">
+      <c r="AP10" s="126">
         <f t="shared" si="5"/>
         <v>7.68</v>
       </c>
-      <c r="AQ10" s="134"/>
-      <c r="AR10" s="134"/>
-      <c r="AS10" s="134"/>
-      <c r="AT10" s="134"/>
-      <c r="AU10" s="134"/>
-      <c r="AV10" s="134"/>
-      <c r="AW10" s="134"/>
-      <c r="AX10" s="134"/>
-      <c r="AY10" s="134"/>
-      <c r="AZ10" s="134"/>
-      <c r="BA10" s="134"/>
-      <c r="BB10" s="134"/>
-      <c r="BC10" s="134"/>
-      <c r="BD10" s="134"/>
-      <c r="BE10" s="134"/>
-      <c r="BF10" s="134"/>
-      <c r="BG10" s="134"/>
-      <c r="BH10" s="134"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
     </row>
     <row r="11" spans="1:60" ht="15">
       <c r="A11" s="26" t="s">
@@ -29720,78 +29708,78 @@
         <v>7.68</v>
       </c>
       <c r="T11" s="27"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="154" t="s">
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="155">
+      <c r="X11" s="124"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="125">
         <v>2.27</v>
       </c>
-      <c r="AA11" s="156">
+      <c r="AA11" s="126">
         <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="155">
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="125">
         <v>15.48</v>
       </c>
-      <c r="AD11" s="156">
+      <c r="AD11" s="126">
         <f t="shared" si="1"/>
         <v>15.48</v>
       </c>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="158">
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128">
         <v>-1305</v>
       </c>
-      <c r="AG11" s="156">
+      <c r="AG11" s="126">
         <f t="shared" si="2"/>
         <v>-1305</v>
       </c>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="155">
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="125">
         <v>-8.41</v>
       </c>
-      <c r="AJ11" s="156">
+      <c r="AJ11" s="126">
         <f t="shared" si="3"/>
         <v>-8.41</v>
       </c>
-      <c r="AK11" s="158"/>
-      <c r="AL11" s="155">
+      <c r="AK11" s="128"/>
+      <c r="AL11" s="125">
         <v>0.2</v>
       </c>
-      <c r="AM11" s="156">
+      <c r="AM11" s="126">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="AN11" s="157"/>
-      <c r="AO11" s="155">
+      <c r="AN11" s="127"/>
+      <c r="AO11" s="125">
         <v>17.559999999999999</v>
       </c>
-      <c r="AP11" s="156">
+      <c r="AP11" s="126">
         <f t="shared" si="5"/>
         <v>17.559999999999999</v>
       </c>
-      <c r="AQ11" s="134"/>
-      <c r="AR11" s="134"/>
-      <c r="AS11" s="134"/>
-      <c r="AT11" s="134"/>
-      <c r="AU11" s="134"/>
-      <c r="AV11" s="134"/>
-      <c r="AW11" s="134"/>
-      <c r="AX11" s="134"/>
-      <c r="AY11" s="134"/>
-      <c r="AZ11" s="134"/>
-      <c r="BA11" s="134"/>
-      <c r="BB11" s="134"/>
-      <c r="BC11" s="134"/>
-      <c r="BD11" s="134"/>
-      <c r="BE11" s="134"/>
-      <c r="BF11" s="134"/>
-      <c r="BG11" s="134"/>
-      <c r="BH11" s="134"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
     </row>
     <row r="12" spans="1:60" ht="15">
       <c r="A12" s="26" t="s">
@@ -29828,78 +29816,78 @@
         <v>17.559999999999999</v>
       </c>
       <c r="T12" s="27"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="154" t="s">
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="124" t="s">
         <v>206</v>
       </c>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="155">
+      <c r="X12" s="124"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="125">
         <v>3.6</v>
       </c>
-      <c r="AA12" s="156">
+      <c r="AA12" s="126">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="155">
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="125">
         <v>68.91</v>
       </c>
-      <c r="AD12" s="156">
+      <c r="AD12" s="126">
         <f t="shared" si="1"/>
         <v>68.91</v>
       </c>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158">
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128">
         <v>-5809</v>
       </c>
-      <c r="AG12" s="156">
+      <c r="AG12" s="126">
         <f t="shared" si="2"/>
         <v>-5809</v>
       </c>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="155">
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="125">
         <v>-9.07</v>
       </c>
-      <c r="AJ12" s="156">
+      <c r="AJ12" s="126">
         <f t="shared" si="3"/>
         <v>-9.07</v>
       </c>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="155">
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="125">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM12" s="156">
+      <c r="AM12" s="126">
         <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN12" s="157"/>
-      <c r="AO12" s="155">
+      <c r="AN12" s="127"/>
+      <c r="AO12" s="125">
         <v>71.91</v>
       </c>
-      <c r="AP12" s="156">
+      <c r="AP12" s="126">
         <f t="shared" si="5"/>
         <v>71.91</v>
       </c>
-      <c r="AQ12" s="134"/>
-      <c r="AR12" s="134"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="134"/>
-      <c r="AU12" s="134"/>
-      <c r="AV12" s="134"/>
-      <c r="AW12" s="134"/>
-      <c r="AX12" s="134"/>
-      <c r="AY12" s="134"/>
-      <c r="AZ12" s="134"/>
-      <c r="BA12" s="134"/>
-      <c r="BB12" s="134"/>
-      <c r="BC12" s="134"/>
-      <c r="BD12" s="134"/>
-      <c r="BE12" s="134"/>
-      <c r="BF12" s="134"/>
-      <c r="BG12" s="134"/>
-      <c r="BH12" s="134"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
     </row>
     <row r="13" spans="1:60" ht="15">
       <c r="A13" s="26" t="s">
@@ -29936,78 +29924,78 @@
         <v>71.91</v>
       </c>
       <c r="T13" s="27"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="154" t="s">
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="155">
+      <c r="X13" s="124"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="125">
         <v>2.99</v>
       </c>
-      <c r="AA13" s="156">
+      <c r="AA13" s="126">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="155">
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="125">
         <v>100</v>
       </c>
-      <c r="AD13" s="156">
+      <c r="AD13" s="126">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158">
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128">
         <v>-1686</v>
       </c>
-      <c r="AG13" s="156">
+      <c r="AG13" s="126">
         <f t="shared" si="2"/>
         <v>-1686</v>
       </c>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="155">
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="125">
         <v>-9.43</v>
       </c>
-      <c r="AJ13" s="156">
+      <c r="AJ13" s="126">
         <f t="shared" si="3"/>
         <v>-9.43</v>
       </c>
-      <c r="AK13" s="158"/>
-      <c r="AL13" s="155">
+      <c r="AK13" s="128"/>
+      <c r="AL13" s="125">
         <v>0</v>
       </c>
-      <c r="AM13" s="156">
+      <c r="AM13" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="157"/>
-      <c r="AO13" s="155">
+      <c r="AN13" s="127"/>
+      <c r="AO13" s="125">
         <v>100</v>
       </c>
-      <c r="AP13" s="156">
+      <c r="AP13" s="126">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="AQ13" s="134"/>
-      <c r="AR13" s="134"/>
-      <c r="AS13" s="134"/>
-      <c r="AT13" s="134"/>
-      <c r="AU13" s="134"/>
-      <c r="AV13" s="134"/>
-      <c r="AW13" s="134"/>
-      <c r="AX13" s="134"/>
-      <c r="AY13" s="134"/>
-      <c r="AZ13" s="134"/>
-      <c r="BA13" s="134"/>
-      <c r="BB13" s="134"/>
-      <c r="BC13" s="134"/>
-      <c r="BD13" s="134"/>
-      <c r="BE13" s="134"/>
-      <c r="BF13" s="134"/>
-      <c r="BG13" s="134"/>
-      <c r="BH13" s="134"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
     </row>
     <row r="14" spans="1:60" ht="15">
       <c r="A14" s="26" t="s">
@@ -30044,46 +30032,46 @@
         <v>100</v>
       </c>
       <c r="T14" s="27"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="157"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="156"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="156"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="156"/>
-      <c r="AN14" s="157"/>
-      <c r="AO14" s="155"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="134"/>
-      <c r="AR14" s="134"/>
-      <c r="AS14" s="134"/>
-      <c r="AT14" s="134"/>
-      <c r="AU14" s="134"/>
-      <c r="AV14" s="134"/>
-      <c r="AW14" s="134"/>
-      <c r="AX14" s="134"/>
-      <c r="AY14" s="134"/>
-      <c r="AZ14" s="134"/>
-      <c r="BA14" s="134"/>
-      <c r="BB14" s="134"/>
-      <c r="BC14" s="134"/>
-      <c r="BD14" s="134"/>
-      <c r="BE14" s="134"/>
-      <c r="BF14" s="134"/>
-      <c r="BG14" s="134"/>
-      <c r="BH14" s="134"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="128"/>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="127"/>
+      <c r="AO14" s="125"/>
+      <c r="AP14" s="126"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
     </row>
     <row r="15" spans="1:60" ht="15">
       <c r="A15" s="26"/>
@@ -30106,48 +30094,48 @@
       <c r="R15" s="29"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="160" t="s">
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="134"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="134"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="134"/>
-      <c r="AJ15" s="156"/>
-      <c r="AK15" s="134"/>
-      <c r="AL15" s="134"/>
-      <c r="AM15" s="156"/>
-      <c r="AN15" s="157"/>
-      <c r="AO15" s="134"/>
-      <c r="AP15" s="156"/>
-      <c r="AQ15" s="134"/>
-      <c r="AR15" s="134"/>
-      <c r="AS15" s="134"/>
-      <c r="AT15" s="134"/>
-      <c r="AU15" s="134"/>
-      <c r="AV15" s="134"/>
-      <c r="AW15" s="134"/>
-      <c r="AX15" s="134"/>
-      <c r="AY15" s="134"/>
-      <c r="AZ15" s="134"/>
-      <c r="BA15" s="134"/>
-      <c r="BB15" s="134"/>
-      <c r="BC15" s="134"/>
-      <c r="BD15" s="134"/>
-      <c r="BE15" s="134"/>
-      <c r="BF15" s="134"/>
-      <c r="BG15" s="134"/>
-      <c r="BH15" s="134"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="127"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="126"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
     </row>
     <row r="16" spans="1:60" ht="15">
       <c r="A16" s="31" t="s">
@@ -30157,78 +30145,78 @@
       <c r="C16" s="25"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="29"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="154" t="s">
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="134"/>
-      <c r="Z16" s="155">
+      <c r="X16" s="124"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="125">
         <v>4.03</v>
       </c>
-      <c r="AA16" s="156">
+      <c r="AA16" s="126">
         <f t="shared" si="0"/>
         <v>4.03</v>
       </c>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="155">
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="125">
         <v>56.09</v>
       </c>
-      <c r="AD16" s="156">
+      <c r="AD16" s="126">
         <f t="shared" si="1"/>
         <v>56.09</v>
       </c>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158">
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128">
         <v>-9457</v>
       </c>
-      <c r="AG16" s="156">
+      <c r="AG16" s="126">
         <f t="shared" si="2"/>
         <v>-9457</v>
       </c>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="155">
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="125">
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AJ16" s="156">
+      <c r="AJ16" s="126">
         <f t="shared" si="3"/>
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AK16" s="158"/>
-      <c r="AL16" s="155">
+      <c r="AK16" s="128"/>
+      <c r="AL16" s="125">
         <v>-0.02</v>
       </c>
-      <c r="AM16" s="156">
+      <c r="AM16" s="126">
         <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="155">
+      <c r="AN16" s="127"/>
+      <c r="AO16" s="125">
         <v>55.87</v>
       </c>
-      <c r="AP16" s="156">
+      <c r="AP16" s="126">
         <f t="shared" si="5"/>
         <v>55.87</v>
       </c>
-      <c r="AQ16" s="134"/>
-      <c r="AR16" s="134"/>
-      <c r="AS16" s="134"/>
-      <c r="AT16" s="134"/>
-      <c r="AU16" s="134"/>
-      <c r="AV16" s="134"/>
-      <c r="AW16" s="134"/>
-      <c r="AX16" s="134"/>
-      <c r="AY16" s="134"/>
-      <c r="AZ16" s="134"/>
-      <c r="BA16" s="134"/>
-      <c r="BB16" s="134"/>
-      <c r="BC16" s="134"/>
-      <c r="BD16" s="134"/>
-      <c r="BE16" s="134"/>
-      <c r="BF16" s="134"/>
-      <c r="BG16" s="134"/>
-      <c r="BH16" s="134"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
     </row>
     <row r="17" spans="1:60" ht="15">
       <c r="A17" s="26" t="s">
@@ -30265,78 +30253,78 @@
         <v>55.87</v>
       </c>
       <c r="T17" s="27"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="154" t="s">
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="134"/>
-      <c r="Z17" s="155">
+      <c r="X17" s="124"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="125">
         <v>4.68</v>
       </c>
-      <c r="AA17" s="156">
+      <c r="AA17" s="126">
         <f t="shared" si="0"/>
         <v>4.68</v>
       </c>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="155">
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="125">
         <v>48.1</v>
       </c>
-      <c r="AD17" s="156">
+      <c r="AD17" s="126">
         <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="158">
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128">
         <v>-16223</v>
       </c>
-      <c r="AG17" s="156">
+      <c r="AG17" s="126">
         <f t="shared" si="2"/>
         <v>-16223</v>
       </c>
-      <c r="AH17" s="134"/>
-      <c r="AI17" s="155">
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="125">
         <v>-10.39</v>
       </c>
-      <c r="AJ17" s="156">
+      <c r="AJ17" s="126">
         <f t="shared" si="3"/>
         <v>-10.39</v>
       </c>
-      <c r="AK17" s="158"/>
-      <c r="AL17" s="155">
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="125">
         <v>-0.46</v>
       </c>
-      <c r="AM17" s="156">
+      <c r="AM17" s="126">
         <f t="shared" si="4"/>
         <v>-0.46</v>
       </c>
-      <c r="AN17" s="157"/>
-      <c r="AO17" s="155">
+      <c r="AN17" s="127"/>
+      <c r="AO17" s="125">
         <v>43.22</v>
       </c>
-      <c r="AP17" s="156">
+      <c r="AP17" s="126">
         <f t="shared" si="5"/>
         <v>43.22</v>
       </c>
-      <c r="AQ17" s="134"/>
-      <c r="AR17" s="134"/>
-      <c r="AS17" s="134"/>
-      <c r="AT17" s="134"/>
-      <c r="AU17" s="134"/>
-      <c r="AV17" s="134"/>
-      <c r="AW17" s="134"/>
-      <c r="AX17" s="134"/>
-      <c r="AY17" s="134"/>
-      <c r="AZ17" s="134"/>
-      <c r="BA17" s="134"/>
-      <c r="BB17" s="134"/>
-      <c r="BC17" s="134"/>
-      <c r="BD17" s="134"/>
-      <c r="BE17" s="134"/>
-      <c r="BF17" s="134"/>
-      <c r="BG17" s="134"/>
-      <c r="BH17" s="134"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
     </row>
     <row r="18" spans="1:60" ht="15">
       <c r="A18" s="26" t="s">
@@ -30373,78 +30361,78 @@
         <v>43.22</v>
       </c>
       <c r="T18" s="27"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="154" t="s">
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="134"/>
-      <c r="Z18" s="155">
+      <c r="X18" s="124"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="125">
         <v>6.74</v>
       </c>
-      <c r="AA18" s="156">
+      <c r="AA18" s="126">
         <f t="shared" si="0"/>
         <v>6.74</v>
       </c>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="155">
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="125">
         <v>36.78</v>
       </c>
-      <c r="AD18" s="156">
+      <c r="AD18" s="126">
         <f t="shared" si="1"/>
         <v>36.78</v>
       </c>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158">
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128">
         <v>-62007</v>
       </c>
-      <c r="AG18" s="156">
+      <c r="AG18" s="126">
         <f t="shared" si="2"/>
         <v>-62007</v>
       </c>
-      <c r="AH18" s="134"/>
-      <c r="AI18" s="155">
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="125">
         <v>-13.37</v>
       </c>
-      <c r="AJ18" s="156">
+      <c r="AJ18" s="126">
         <f t="shared" si="3"/>
         <v>-13.37</v>
       </c>
-      <c r="AK18" s="158"/>
-      <c r="AL18" s="155">
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="125">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AM18" s="156">
+      <c r="AM18" s="126">
         <f t="shared" si="4"/>
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AN18" s="157"/>
-      <c r="AO18" s="155">
+      <c r="AN18" s="127"/>
+      <c r="AO18" s="125">
         <v>24.83</v>
       </c>
-      <c r="AP18" s="156">
+      <c r="AP18" s="126">
         <f t="shared" si="5"/>
         <v>24.83</v>
       </c>
-      <c r="AQ18" s="134"/>
-      <c r="AR18" s="134"/>
-      <c r="AS18" s="134"/>
-      <c r="AT18" s="134"/>
-      <c r="AU18" s="134"/>
-      <c r="AV18" s="134"/>
-      <c r="AW18" s="134"/>
-      <c r="AX18" s="134"/>
-      <c r="AY18" s="134"/>
-      <c r="AZ18" s="134"/>
-      <c r="BA18" s="134"/>
-      <c r="BB18" s="134"/>
-      <c r="BC18" s="134"/>
-      <c r="BD18" s="134"/>
-      <c r="BE18" s="134"/>
-      <c r="BF18" s="134"/>
-      <c r="BG18" s="134"/>
-      <c r="BH18" s="134"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
     </row>
     <row r="19" spans="1:60" ht="15">
       <c r="A19" s="26" t="s">
@@ -30481,78 +30469,78 @@
         <v>24.83</v>
       </c>
       <c r="T19" s="27"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="154" t="s">
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="155">
+      <c r="X19" s="124"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="125">
         <v>7.33</v>
       </c>
-      <c r="AA19" s="156">
+      <c r="AA19" s="126">
         <f t="shared" si="0"/>
         <v>7.33</v>
       </c>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="155">
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="125">
         <v>31.05</v>
       </c>
-      <c r="AD19" s="156">
+      <c r="AD19" s="126">
         <f t="shared" si="1"/>
         <v>31.05</v>
       </c>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158">
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128">
         <v>-104678</v>
       </c>
-      <c r="AG19" s="156">
+      <c r="AG19" s="126">
         <f t="shared" si="2"/>
         <v>-104678</v>
       </c>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="155">
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="125">
         <v>-13.91</v>
       </c>
-      <c r="AJ19" s="156">
+      <c r="AJ19" s="126">
         <f t="shared" si="3"/>
         <v>-13.91</v>
       </c>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="155">
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="125">
         <v>-1.04</v>
       </c>
-      <c r="AM19" s="156">
+      <c r="AM19" s="126">
         <f t="shared" si="4"/>
         <v>-1.04</v>
       </c>
-      <c r="AN19" s="157"/>
-      <c r="AO19" s="155">
+      <c r="AN19" s="127"/>
+      <c r="AO19" s="125">
         <v>20.010000000000002</v>
       </c>
-      <c r="AP19" s="156">
+      <c r="AP19" s="126">
         <f t="shared" si="5"/>
         <v>20.010000000000002</v>
       </c>
-      <c r="AQ19" s="134"/>
-      <c r="AR19" s="134"/>
-      <c r="AS19" s="134"/>
-      <c r="AT19" s="134"/>
-      <c r="AU19" s="134"/>
-      <c r="AV19" s="134"/>
-      <c r="AW19" s="134"/>
-      <c r="AX19" s="134"/>
-      <c r="AY19" s="134"/>
-      <c r="AZ19" s="134"/>
-      <c r="BA19" s="134"/>
-      <c r="BB19" s="134"/>
-      <c r="BC19" s="134"/>
-      <c r="BD19" s="134"/>
-      <c r="BE19" s="134"/>
-      <c r="BF19" s="134"/>
-      <c r="BG19" s="134"/>
-      <c r="BH19" s="134"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="114"/>
+      <c r="AZ19" s="114"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
     </row>
     <row r="20" spans="1:60" ht="15">
       <c r="A20" s="26" t="s">
@@ -30589,78 +30577,78 @@
         <v>20.010000000000002</v>
       </c>
       <c r="T20" s="27"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="154" t="s">
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="134"/>
-      <c r="Z20" s="155">
+      <c r="X20" s="124"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="125">
         <v>7.81</v>
       </c>
-      <c r="AA20" s="156">
+      <c r="AA20" s="126">
         <f t="shared" si="0"/>
         <v>7.81</v>
       </c>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="155">
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="125">
         <v>18.63</v>
       </c>
-      <c r="AD20" s="156">
+      <c r="AD20" s="126">
         <f t="shared" si="1"/>
         <v>18.63</v>
       </c>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158">
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128">
         <v>-314150</v>
       </c>
-      <c r="AG20" s="156">
+      <c r="AG20" s="126">
         <f t="shared" si="2"/>
         <v>-314150</v>
       </c>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="155">
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="125">
         <v>-13.68</v>
       </c>
-      <c r="AJ20" s="156">
+      <c r="AJ20" s="126">
         <f t="shared" si="3"/>
         <v>-13.68</v>
       </c>
-      <c r="AK20" s="158"/>
-      <c r="AL20" s="155">
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="125">
         <v>-0.6</v>
       </c>
-      <c r="AM20" s="156">
+      <c r="AM20" s="126">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
-      <c r="AN20" s="157"/>
-      <c r="AO20" s="155">
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="125">
         <v>12.25</v>
       </c>
-      <c r="AP20" s="156">
+      <c r="AP20" s="126">
         <f t="shared" si="5"/>
         <v>12.25</v>
       </c>
-      <c r="AQ20" s="134"/>
-      <c r="AR20" s="134"/>
-      <c r="AS20" s="134"/>
-      <c r="AT20" s="134"/>
-      <c r="AU20" s="134"/>
-      <c r="AV20" s="134"/>
-      <c r="AW20" s="134"/>
-      <c r="AX20" s="134"/>
-      <c r="AY20" s="134"/>
-      <c r="AZ20" s="134"/>
-      <c r="BA20" s="134"/>
-      <c r="BB20" s="134"/>
-      <c r="BC20" s="134"/>
-      <c r="BD20" s="134"/>
-      <c r="BE20" s="134"/>
-      <c r="BF20" s="134"/>
-      <c r="BG20" s="134"/>
-      <c r="BH20" s="134"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
     </row>
     <row r="21" spans="1:60" ht="15">
       <c r="A21" s="26" t="s">
@@ -30697,46 +30685,46 @@
         <v>12.25</v>
       </c>
       <c r="T21" s="27"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
-      <c r="AJ21" s="161"/>
-      <c r="AK21" s="161"/>
-      <c r="AL21" s="161"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="161"/>
-      <c r="AO21" s="161"/>
-      <c r="AP21" s="161"/>
-      <c r="AQ21" s="134"/>
-      <c r="AR21" s="134"/>
-      <c r="AS21" s="134"/>
-      <c r="AT21" s="134"/>
-      <c r="AU21" s="134"/>
-      <c r="AV21" s="134"/>
-      <c r="AW21" s="134"/>
-      <c r="AX21" s="134"/>
-      <c r="AY21" s="134"/>
-      <c r="AZ21" s="134"/>
-      <c r="BA21" s="134"/>
-      <c r="BB21" s="134"/>
-      <c r="BC21" s="134"/>
-      <c r="BD21" s="134"/>
-      <c r="BE21" s="134"/>
-      <c r="BF21" s="134"/>
-      <c r="BG21" s="134"/>
-      <c r="BH21" s="134"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="131"/>
+      <c r="AJ21" s="131"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="131"/>
+      <c r="AM21" s="131"/>
+      <c r="AN21" s="131"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
     </row>
     <row r="22" spans="1:60" ht="15">
       <c r="A22" s="32"/>
@@ -30758,48 +30746,48 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="162" t="s">
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="134"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="134"/>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="134"/>
-      <c r="AI22" s="134"/>
-      <c r="AJ22" s="134"/>
-      <c r="AK22" s="134"/>
-      <c r="AL22" s="134"/>
-      <c r="AM22" s="134"/>
-      <c r="AN22" s="134"/>
-      <c r="AO22" s="134"/>
-      <c r="AP22" s="134"/>
-      <c r="AQ22" s="134"/>
-      <c r="AR22" s="134"/>
-      <c r="AS22" s="134"/>
-      <c r="AT22" s="134"/>
-      <c r="AU22" s="134"/>
-      <c r="AV22" s="134"/>
-      <c r="AW22" s="134"/>
-      <c r="AX22" s="134"/>
-      <c r="AY22" s="134"/>
-      <c r="AZ22" s="134"/>
-      <c r="BA22" s="134"/>
-      <c r="BB22" s="134"/>
-      <c r="BC22" s="134"/>
-      <c r="BD22" s="134"/>
-      <c r="BE22" s="134"/>
-      <c r="BF22" s="134"/>
-      <c r="BG22" s="134"/>
-      <c r="BH22" s="134"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="114"/>
+      <c r="AZ22" s="114"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
     </row>
     <row r="23" spans="1:60">
       <c r="A23" s="33" t="s">
@@ -32338,12 +32326,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P4:S5"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="U3:V6"/>
-    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="AP1:BH1"/>
+    <mergeCell ref="AP3:AS4"/>
+    <mergeCell ref="AP5:AQ6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="D4:E7"/>
+    <mergeCell ref="G4:H7"/>
+    <mergeCell ref="J4:N5"/>
     <mergeCell ref="W1:AO1"/>
     <mergeCell ref="W3:X6"/>
     <mergeCell ref="Z3:AA6"/>
@@ -32353,17 +32345,13 @@
     <mergeCell ref="AF5:AG6"/>
     <mergeCell ref="AI5:AJ6"/>
     <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="D4:E7"/>
-    <mergeCell ref="G4:H7"/>
-    <mergeCell ref="J4:N5"/>
     <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP1:BH1"/>
-    <mergeCell ref="AP3:AS4"/>
-    <mergeCell ref="AP5:AQ6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="U3:V6"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="AA8:AA20">
@@ -33460,35 +33448,35 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="126" t="s">
+      <c r="B41" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="9"/>
@@ -34145,24 +34133,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
@@ -34633,15 +34621,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G29" s="40"/>
-      <c r="I29" s="128" t="s">
+      <c r="I29" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="37">
@@ -34665,13 +34653,13 @@
       <c r="G30" s="41">
         <v>1980</v>
       </c>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="37">
@@ -34693,13 +34681,13 @@
         <v>19.3</v>
       </c>
       <c r="G31" s="40"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="37">
